--- a/cafe94/src/main/java/login/Data.xlsx
+++ b/cafe94/src/main/java/login/Data.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t>FirstName</t>
   </si>
@@ -61,6 +61,27 @@
   </si>
   <si>
     <t>Try1</t>
+  </si>
+  <si>
+    <t>Try2</t>
+  </si>
+  <si>
+    <t>dwakdadw</t>
+  </si>
+  <si>
+    <t>dadawdawd</t>
+  </si>
+  <si>
+    <t>dwadawda</t>
+  </si>
+  <si>
+    <t>dwadwad</t>
+  </si>
+  <si>
+    <t>dwadawdaw</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -413,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -513,6 +534,46 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cafe94/src/main/java/login/Data.xlsx
+++ b/cafe94/src/main/java/login/Data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\Projects\Cafe94\cafe94\src\main\java\login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA57EEA-F2D5-4AB7-96B9-640706A3A106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94AFEA7-7CAD-4B6C-81B9-9E5E96B9AA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4032" yWindow="3540" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="780" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>FirstName</t>
   </si>
@@ -60,39 +60,41 @@
     <t>RegisterID</t>
   </si>
   <si>
-    <t>Try1</t>
-  </si>
-  <si>
-    <t>Try2</t>
-  </si>
-  <si>
-    <t>dwakdadw</t>
-  </si>
-  <si>
-    <t>dadawdawd</t>
-  </si>
-  <si>
-    <t>dwadawda</t>
-  </si>
-  <si>
-    <t>dwadwad</t>
-  </si>
-  <si>
-    <t>dwadawdaw</t>
-  </si>
-  <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>Sahukar</t>
+  </si>
+  <si>
+    <t>kiransahukar1999@gmail.com</t>
+  </si>
+  <si>
+    <t>karnataka, India</t>
+  </si>
+  <si>
+    <t>8970770711</t>
+  </si>
+  <si>
+    <t>CafeMate0001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -434,147 +436,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.77734375"/>
-    <col min="2" max="2" customWidth="true" width="17.33203125"/>
-    <col min="3" max="3" customWidth="true" width="15.0"/>
-    <col min="4" max="4" customWidth="true" width="18.0"/>
-    <col min="5" max="5" customWidth="true" width="22.6640625"/>
-    <col min="6" max="6" customWidth="true" width="11.88671875"/>
-    <col min="7" max="7" customWidth="true" width="10.109375"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/cafe94/src/main/java/login/Data.xlsx
+++ b/cafe94/src/main/java/login/Data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\Projects\Cafe94\cafe94\src\main\java\login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94AFEA7-7CAD-4B6C-81B9-9E5E96B9AA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F870D227-EDEA-46D7-ACA8-088C3B4B3623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="780" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="480" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Food" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>FirstName</t>
   </si>
@@ -79,6 +79,177 @@
   </si>
   <si>
     <t>CafeMate0001</t>
+  </si>
+  <si>
+    <t>HotDrink</t>
+  </si>
+  <si>
+    <t>ColdDrink</t>
+  </si>
+  <si>
+    <t>Donuts</t>
+  </si>
+  <si>
+    <t>Wrap</t>
+  </si>
+  <si>
+    <t>Sandwiches</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>Sides</t>
+  </si>
+  <si>
+    <t>Vegg</t>
+  </si>
+  <si>
+    <t>SpecialItems</t>
+  </si>
+  <si>
+    <t>Espresso</t>
+  </si>
+  <si>
+    <t>Macchiato</t>
+  </si>
+  <si>
+    <t>Americano</t>
+  </si>
+  <si>
+    <t>HotDinkPrice</t>
+  </si>
+  <si>
+    <t>WhiteCoffee</t>
+  </si>
+  <si>
+    <t>CafeLatte</t>
+  </si>
+  <si>
+    <t>Cappucciona</t>
+  </si>
+  <si>
+    <t>Mocha</t>
+  </si>
+  <si>
+    <t>ColdDrinkPrice</t>
+  </si>
+  <si>
+    <t>DonutsPrice</t>
+  </si>
+  <si>
+    <t>WrapPrice</t>
+  </si>
+  <si>
+    <t>SandwichesPrice</t>
+  </si>
+  <si>
+    <t>BurgerPrice</t>
+  </si>
+  <si>
+    <t>ChickenPrice</t>
+  </si>
+  <si>
+    <t>SideSPrice</t>
+  </si>
+  <si>
+    <t>VeggPrice</t>
+  </si>
+  <si>
+    <t>SpecialItemsPrice</t>
+  </si>
+  <si>
+    <t>SoftDrink</t>
+  </si>
+  <si>
+    <t>Coke</t>
+  </si>
+  <si>
+    <t>Pepsi</t>
+  </si>
+  <si>
+    <t>OrangeJuice</t>
+  </si>
+  <si>
+    <t>DietCoke</t>
+  </si>
+  <si>
+    <t>AppleJuice</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>ChocolateBrowine</t>
+  </si>
+  <si>
+    <t>CaramelDelux</t>
+  </si>
+  <si>
+    <t>AppleDelux</t>
+  </si>
+  <si>
+    <t>ChocoDip</t>
+  </si>
+  <si>
+    <t>CaramelDip</t>
+  </si>
+  <si>
+    <t>VenilaDip</t>
+  </si>
+  <si>
+    <t>VinilaDelux</t>
+  </si>
+  <si>
+    <t>ChickenWrap</t>
+  </si>
+  <si>
+    <t>VeggWrap</t>
+  </si>
+  <si>
+    <t>VeggStkWrap</t>
+  </si>
+  <si>
+    <t>CkStkWrap</t>
+  </si>
+  <si>
+    <t>SingleCheese</t>
+  </si>
+  <si>
+    <t>DoubleCheese</t>
+  </si>
+  <si>
+    <t>TrippleCheese</t>
+  </si>
+  <si>
+    <t>ChickenTenders</t>
+  </si>
+  <si>
+    <t>Fires</t>
+  </si>
+  <si>
+    <t>Salad</t>
+  </si>
+  <si>
+    <t>Three</t>
+  </si>
+  <si>
+    <t>Five</t>
+  </si>
+  <si>
+    <t>Ten</t>
+  </si>
+  <si>
+    <t>Sandwich</t>
+  </si>
+  <si>
+    <t>CknStkSandwiche</t>
+  </si>
+  <si>
+    <t>CknSandwiche</t>
+  </si>
+  <si>
+    <t>DonkAsk</t>
   </si>
 </sst>
 </file>
@@ -436,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,7 +649,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -487,15 +658,38 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -507,12 +701,352 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2360033-6B62-4DF8-A7D7-4F8FBA203B20}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/cafe94/src/main/java/login/Data.xlsx
+++ b/cafe94/src/main/java/login/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\Projects\Cafe94\cafe94\src\main\java\login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F870D227-EDEA-46D7-ACA8-088C3B4B3623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEC1525-A3FF-4978-BEA6-382F617EA23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="480" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
@@ -81,12 +81,6 @@
     <t>CafeMate0001</t>
   </si>
   <si>
-    <t>HotDrink</t>
-  </si>
-  <si>
-    <t>ColdDrink</t>
-  </si>
-  <si>
     <t>Donuts</t>
   </si>
   <si>
@@ -250,6 +244,12 @@
   </si>
   <si>
     <t>DonkAsk</t>
+  </si>
+  <si>
+    <t>HotDrinks</t>
+  </si>
+  <si>
+    <t>ColdDrinks</t>
   </si>
 </sst>
 </file>
@@ -609,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2360033-6B62-4DF8-A7D7-4F8FBA203B20}">
   <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,33 +720,33 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -772,33 +772,33 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -824,33 +824,33 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>50</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -876,24 +876,24 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
         <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -910,18 +910,18 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -932,21 +932,21 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
         <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -960,21 +960,21 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
         <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -988,18 +988,18 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1010,18 +1010,18 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1032,15 +1032,15 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>1</v>

--- a/cafe94/src/main/java/login/Data.xlsx
+++ b/cafe94/src/main/java/login/Data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\Projects\Cafe94\cafe94\src\main\java\login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEC1525-A3FF-4978-BEA6-382F617EA23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D147F7-B7BA-4540-9B16-B083CC6C3D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>FirstName</t>
   </si>
@@ -250,12 +250,46 @@
   </si>
   <si>
     <t>ColdDrinks</t>
+  </si>
+  <si>
+    <t>CafeMate0003</t>
+  </si>
+  <si>
+    <t>ceph</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>ceph@gmail.com</t>
+  </si>
+  <si>
+    <t>swansea</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>CafeMate0004</t>
+  </si>
+  <si>
+    <t>dada</t>
+  </si>
+  <si>
+    <t>dsadsadas</t>
+  </si>
+  <si>
+    <t>asdasda</t>
+  </si>
+  <si>
+    <t>dadasdad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -607,89 +641,135 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.5546875"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125"/>
+    <col min="3" max="3" customWidth="true" width="15.0"/>
+    <col min="4" max="4" customWidth="true" width="18.0"/>
+    <col min="5" max="5" customWidth="true" width="22.6640625"/>
+    <col min="6" max="6" customWidth="true" width="11.88671875"/>
+    <col min="7" max="7" customWidth="true" width="10.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s" s="0">
         <v>7</v>
       </c>
     </row>
@@ -703,346 +783,346 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2360033-6B62-4DF8-A7D7-4F8FBA203B20}">
   <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.21875"/>
+    <col min="2" max="2" customWidth="true" width="16.5546875"/>
+    <col min="3" max="3" customWidth="true" width="17.21875"/>
+    <col min="4" max="4" customWidth="true" width="12.33203125"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875"/>
+    <col min="6" max="6" customWidth="true" width="9.88671875"/>
+    <col min="7" max="7" customWidth="true" width="12.109375"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="B3" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="B5" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="B7" s="0">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="B9" s="0">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="0">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="0">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="0">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="0">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="0">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>1</v>
       </c>
     </row>

--- a/cafe94/src/main/java/login/Data.xlsx
+++ b/cafe94/src/main/java/login/Data.xlsx
@@ -3,22 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\Projects\Cafe94\cafe94\src\main\java\login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D147F7-B7BA-4540-9B16-B083CC6C3D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10C3BC2-D51D-4327-8198-B9B566A53F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UserData" sheetId="1" r:id="rId1"/>
-    <sheet name="Food" sheetId="2" r:id="rId2"/>
+    <sheet name="TempBasket" sheetId="3" r:id="rId2"/>
+    <sheet name="OrderHistory" sheetId="5" r:id="rId3"/>
+    <sheet name="Food" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="102">
   <si>
     <t>FirstName</t>
   </si>
@@ -45,9 +47,6 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>Gmail</t>
-  </si>
-  <si>
     <t>PhoneNumber</t>
   </si>
   <si>
@@ -57,9 +56,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>RegisterID</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -69,15 +65,6 @@
     <t>Sahukar</t>
   </si>
   <si>
-    <t>kiransahukar1999@gmail.com</t>
-  </si>
-  <si>
-    <t>karnataka, India</t>
-  </si>
-  <si>
-    <t>8970770711</t>
-  </si>
-  <si>
     <t>CafeMate0001</t>
   </si>
   <si>
@@ -283,14 +270,119 @@
   </si>
   <si>
     <t>dadasdad</t>
+  </si>
+  <si>
+    <t>CafeMate0005</t>
+  </si>
+  <si>
+    <t>saurav</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>sa@gmail.com</t>
+  </si>
+  <si>
+    <t>gfgfgfghfg</t>
+  </si>
+  <si>
+    <t>3335545446464</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>BasketStatus</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket admin has the following items:
+Item: Espresso, price: 1.00 pounds, quantity: 5
+Item: ChocolateBrowine, price: 1.00 pounds, quantity: 4
+Item: CknSandwiche, price: 1.00 pounds, quantity: 4
+Total cost: 13.00 pounds
+</t>
+  </si>
+  <si>
+    <t>gmailID</t>
+  </si>
+  <si>
+    <t>dontask@mail.com</t>
+  </si>
+  <si>
+    <t>dawdwa</t>
+  </si>
+  <si>
+    <t>CafeMate0002</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>dwadwa</t>
+  </si>
+  <si>
+    <t>dawdawfaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket admin has the following items:
+Item: SoftDrink, price: 1.00 pounds
+Item: Coke, price: 1.00 pounds
+Item: DietCoke, price: 1.00 pounds
+Item: Pepsi, price: 1.00 pounds
+Item: OrangeJuice, price: 1.00 pounds
+Item: CknSandwiche, price: 1.00 pounds, quantity: 2
+Item: CknStkSandwiche, price: 1.00 pounds
+Total cost: 8.00 pounds
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket admin has the following items:
+Item: Coke, price: 1.00 pounds
+Total cost: 1.00 pounds
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket admin has the following items:
+Item: ChickenWrap, price: 1.00 pounds, quantity: 6
+Total cost: 6.00 pounds
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket admin has the following items:
+Item: Espresso, price: 1.00 pounds
+Item: SingleCheese, price: 1.00 pounds
+Item: SoftDrink, price: 1.00 pounds
+Total cost: 3.00 pounds
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket admin has the following items:
+Item: SoftDrink, price: 1.00 pounds
+Item: ChocolateBrowine, price: 1.00 pounds
+Total cost: 2.00 pounds
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basket admin has the following items:
+Total cost: 0.00 pounds
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +392,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -322,13 +422,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -641,145 +744,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.5546875"/>
-    <col min="2" max="2" customWidth="true" width="17.33203125"/>
-    <col min="3" max="3" customWidth="true" width="15.0"/>
-    <col min="4" max="4" customWidth="true" width="18.0"/>
-    <col min="5" max="5" customWidth="true" width="22.6640625"/>
-    <col min="6" max="6" customWidth="true" width="11.88671875"/>
-    <col min="7" max="7" customWidth="true" width="10.109375"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s" s="0">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
+      <c r="D3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E6" t="s">
         <v>75</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F6" t="s">
         <v>76</v>
       </c>
-      <c r="G4" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>77</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B7" t="s">
         <v>78</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="C7" t="s">
         <v>79</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="D7" t="s">
         <v>80</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="E7" t="s">
         <v>81</v>
       </c>
-      <c r="G5" t="s" s="0">
-        <v>7</v>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{B8EEC2D1-F61E-4F83-8920-F731B0C2CE66}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{76CDF3C0-A9BD-4E7D-87F3-0EAE2E5A0CDB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE76880D-1D48-4F9F-94A2-D9774683ECAC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="A2:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2756A9DE-8640-4624-BF8F-A4CA2A44B7CF}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2360033-6B62-4DF8-A7D7-4F8FBA203B20}">
   <dimension ref="A2:H21"/>
   <sheetViews>
@@ -789,340 +1040,340 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.21875"/>
-    <col min="2" max="2" customWidth="true" width="16.5546875"/>
-    <col min="3" max="3" customWidth="true" width="17.21875"/>
-    <col min="4" max="4" customWidth="true" width="12.33203125"/>
-    <col min="5" max="5" customWidth="true" width="12.88671875"/>
-    <col min="6" max="6" customWidth="true" width="9.88671875"/>
-    <col min="7" max="7" customWidth="true" width="12.109375"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s" s="0">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s" s="0">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B3" s="0">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s" s="0">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="0">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0">
-        <v>1</v>
-      </c>
-      <c r="H5" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s" s="0">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="B7" s="0">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0">
-        <v>1</v>
-      </c>
-      <c r="H7" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s" s="0">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="B9" s="0">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s" s="0">
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="0">
-        <v>1</v>
-      </c>
-      <c r="C11" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="B13" s="0">
-        <v>1</v>
-      </c>
-      <c r="C13" s="0">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="B15" s="0">
-        <v>1</v>
-      </c>
-      <c r="C15" s="0">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="B17" s="0">
-        <v>1</v>
-      </c>
-      <c r="C17" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="B19" s="0">
-        <v>1</v>
-      </c>
-      <c r="C19" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>1</v>
       </c>
     </row>

--- a/cafe94/src/main/java/login/Data.xlsx
+++ b/cafe94/src/main/java/login/Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiran\Projects\Cafe94\cafe94\src\main\java\login\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="103">
   <si>
     <t>FirstName</t>
   </si>
@@ -377,11 +377,15 @@
 Total cost: 0.00 pounds
 </t>
   </si>
+  <si>
+    <t>Yes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -752,195 +756,195 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.5546875"/>
+    <col min="2" max="2" customWidth="true" width="17.33203125"/>
+    <col min="3" max="3" customWidth="true" width="15.0"/>
+    <col min="4" max="4" customWidth="true" width="18.0"/>
+    <col min="5" max="5" customWidth="true" width="22.6640625"/>
+    <col min="6" max="6" customWidth="true" width="11.88671875"/>
+    <col min="7" max="7" customWidth="true" width="10.109375"/>
+    <col min="8" max="8" customWidth="true" width="11.77734375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>84</v>
+      <c r="H2" t="s" s="0">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s" s="0">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="F4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="C6" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H6" t="s" s="0">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>84</v>
-      </c>
-    </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>84</v>
       </c>
     </row>
@@ -956,7 +960,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE76880D-1D48-4F9F-94A2-D9774683ECAC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="A2:C10"/>
@@ -964,17 +968,63 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.77734375"/>
+    <col min="2" max="2" customWidth="true" width="18.33203125"/>
+    <col min="3" max="3" customWidth="true" width="18.44140625"/>
+    <col min="4" max="4" customWidth="true" width="18.88671875"/>
+    <col min="5" max="5" customWidth="true" width="17.33203125"/>
+    <col min="6" max="6" customWidth="true" width="15.77734375"/>
+    <col min="7" max="7" customWidth="true" width="14.44140625"/>
+    <col min="8" max="8" customWidth="true" width="12.88671875"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -990,38 +1040,38 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>96</v>
       </c>
     </row>
@@ -1040,340 +1090,340 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.21875"/>
+    <col min="2" max="2" customWidth="true" width="16.5546875"/>
+    <col min="3" max="3" customWidth="true" width="17.21875"/>
+    <col min="4" max="4" customWidth="true" width="12.33203125"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875"/>
+    <col min="6" max="6" customWidth="true" width="9.88671875"/>
+    <col min="7" max="7" customWidth="true" width="12.109375"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="B3" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="B5" s="0">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="B7" s="0">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="B9" s="0">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="0">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="0">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="0">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="0">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="0">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>1</v>
       </c>
     </row>
